--- a/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
+++ b/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
@@ -16,19 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>urlString</t>
+    <t>http://youtube.com</t>
+  </si>
+  <si>
+    <t>urlString as uri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +62,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,20 +371,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
+++ b/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>http://youtube.com</t>
   </si>
   <si>
     <t>urlString as uri</t>
+  </si>
+  <si>
+    <t>http://example.com/</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,9 +395,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
+++ b/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>http://youtube.com</t>
-  </si>
-  <si>
     <t>urlString as uri</t>
   </si>
   <si>
     <t>http://example.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/XjwZAa2EjKA</t>
   </si>
 </sst>
 </file>
@@ -377,27 +377,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
+++ b/examples/javascript/p2p/SharedBrowserSessionExperiment/SharedBrowserSessionExperiment.DataLayer/Data/NavigationOrders.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="10056"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="10056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Navigate" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Positions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>urlString as uri</t>
   </si>
@@ -25,6 +25,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/XjwZAa2EjKA</t>
+  </si>
+  <si>
+    <t>NavigateBindingSourcePosition as long</t>
+  </si>
+  <si>
+    <t>Left as long</t>
+  </si>
+  <si>
+    <t>Top as long</t>
+  </si>
+  <si>
+    <t>Width as long</t>
+  </si>
+  <si>
+    <t>Height as long</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -411,12 +426,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
